--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1848925.180488687</v>
+        <v>1953104.814939759</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>196.74891715089</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>196.162326659924</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773018</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>39.91819272259553</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>61.36917500886894</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>303.9797298768506</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>132.4079811337036</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>90.39866052803886</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>13.32940067167105</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>24.93375787515101</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>200.1678679309902</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>195.0041779650598</v>
+        <v>79.60155015132531</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1421,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>62.36981422367011</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>51.36569740310337</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>13.03790159951636</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>55.4097602225693</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>177.1006680594833</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520986</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>121.8000472740358</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>196.7867454260354</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>5.890337106877586</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2722,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>31.83025205763987</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>86.88943397770092</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2953,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>103.1686991936193</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>56.10180801516488</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756248</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>119.456671712837</v>
       </c>
     </row>
     <row r="35">
@@ -3269,13 +3271,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>63.38272884730802</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>13.72582864853726</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3560,10 +3562,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>118.8520688186515</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>243.1373908222617</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>104.1233804225859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>22.65115569188744</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.56934869447</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.56934869447</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1133.30365008772</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.567370137326</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477183</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927148</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609169</v>
+        <v>3017.171388833312</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609169</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265598</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995484</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734404</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758592</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="3">
@@ -4398,58 +4400,58 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125854</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619334</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431605</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199862</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471661</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266128</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501177</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218338</v>
+        <v>666.202517612298</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218338</v>
+        <v>497.2663346843912</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218338</v>
+        <v>497.2663346843912</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218338</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218338</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218338</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962276</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.645724237293</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596501</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588477</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886951</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068846</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596431</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757116</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>639.370664402538</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>417.604048972064</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>128.5011820977076</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>66.51211643218338</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W4" t="n">
-        <v>66.51211643218338</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X4" t="n">
-        <v>66.51211643218338</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218338</v>
+        <v>666.202517612298</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2266.42941827456</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1897.466901334148</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1539.201202727398</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3081.569717647677</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520486</v>
+        <v>3081.569717647677</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520486</v>
+        <v>2750.506830304106</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250372</v>
+        <v>2750.506830304106</v>
       </c>
       <c r="X5" t="n">
-        <v>2656.568750250372</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="Y5" t="n">
-        <v>2266.42941827456</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686088</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064765</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>827.0643955080142</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>326.7600776712407</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C7" t="n">
-        <v>157.8238947433337</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8238947433337</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>157.8238947433337</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>157.8238947433337</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>157.8238947433337</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>157.8238947433337</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181842</v>
+        <v>907.422964735689</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450105</v>
+        <v>907.422964735689</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450105</v>
+        <v>907.422964735689</v>
       </c>
       <c r="U7" t="n">
-        <v>729.2011216450105</v>
+        <v>907.422964735689</v>
       </c>
       <c r="V7" t="n">
-        <v>729.2011216450105</v>
+        <v>907.422964735689</v>
       </c>
       <c r="W7" t="n">
-        <v>729.2011216450105</v>
+        <v>907.422964735689</v>
       </c>
       <c r="X7" t="n">
-        <v>729.2011216450105</v>
+        <v>679.4334138376717</v>
       </c>
       <c r="Y7" t="n">
-        <v>508.4085425014804</v>
+        <v>458.6408346941415</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528559</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,16 +4801,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4817,37 +4819,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794322</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2730.621314779018</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2377.852659508904</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.852659508904</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.7293032143256</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877102</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877102</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>699.1203903877102</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>409.7032203507496</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X10" t="n">
-        <v>212.7293032143256</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.7293032143256</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5038,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,13 +5047,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2395.078540748843</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2395.078540748843</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E16" t="n">
-        <v>113.9333885650331</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135317</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135317</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.1082042373</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5746,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558404</v>
+        <v>3028.451182298828</v>
       </c>
       <c r="C22" t="n">
-        <v>2757.723669558404</v>
+        <v>2859.514999370921</v>
       </c>
       <c r="D22" t="n">
-        <v>2607.607030146068</v>
+        <v>2709.398359958586</v>
       </c>
       <c r="E22" t="n">
-        <v>2484.576679364214</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866303</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866303</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866303</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>4492.058662069265</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673038</v>
+        <v>4202.983435413463</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467151</v>
+        <v>3948.298947207576</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430191</v>
+        <v>3658.881777170615</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532174</v>
+        <v>3430.892226272598</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388644</v>
+        <v>3210.099647129068</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6175,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2140.394052542956</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6700,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3227.225672628157</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C34" t="n">
-        <v>3058.28948970025</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D34" t="n">
-        <v>2908.172850287915</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>2760.259756705521</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>2613.369809207611</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2446.173709922491</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4401.757925742791</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4147.073437536905</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>3857.656267499944</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>3629.666716601927</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>3408.874137458397</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,13 +6943,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7017,19 +7019,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P36" t="n">
         <v>2516.421633107662</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>763.7541388327643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D37" t="n">
-        <v>613.6374994204285</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>107.6811364303327</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7166,49 +7168,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7257,22 +7259,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647277</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7365,19 @@
         <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949674</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7400,43 +7402,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7494,13 +7496,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C43" t="n">
-        <v>572.9069687101817</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D43" t="n">
-        <v>422.7903292978459</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>422.7903292978459</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>422.7903292978459</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7609,10 +7611,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7734,19 +7736,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876688</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>430.7826650753331</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>129.6605885985412</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>127.2568112467075</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>93.20571279564305</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>75.0369752643447</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>24.63391537253332</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>20.61870490125284</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>280.2941372823665</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>138.8202214113362</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>161.3036423121234</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>32.89260457059909</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>99.12798163925781</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>83.05123379926115</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>126.5688841976866</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>48.39475227997633</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,10 +25605,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>9.000252501566337</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>61.40075786968293</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697899</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697899</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861532.6408697895</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>861532.6408697899</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697899</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="K2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.619783004</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040527</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405266</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26433,7 +26435,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26451,7 +26453,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880389</v>
+        <v>-955546.1914880399</v>
       </c>
       <c r="C6" t="n">
         <v>373198.5542395527</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395524</v>
+        <v>373198.5542395525</v>
       </c>
       <c r="E6" t="n">
-        <v>123640.9321098741</v>
+        <v>123640.9321098748</v>
       </c>
       <c r="F6" t="n">
-        <v>449053.3939172297</v>
+        <v>449053.3939172299</v>
       </c>
       <c r="G6" t="n">
+        <v>449053.39391723</v>
+      </c>
+      <c r="H6" t="n">
+        <v>449053.3939172299</v>
+      </c>
+      <c r="I6" t="n">
+        <v>449053.3939172299</v>
+      </c>
+      <c r="J6" t="n">
+        <v>231522.1915199523</v>
+      </c>
+      <c r="K6" t="n">
         <v>449053.3939172298</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>449053.3939172299</v>
+      </c>
+      <c r="M6" t="n">
+        <v>363998.3659817181</v>
+      </c>
+      <c r="N6" t="n">
         <v>449053.39391723</v>
       </c>
-      <c r="I6" t="n">
-        <v>449053.3939172298</v>
-      </c>
-      <c r="J6" t="n">
-        <v>231522.1915199525</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>449053.3939172301</v>
       </c>
-      <c r="L6" t="n">
-        <v>449053.39391723</v>
-      </c>
-      <c r="M6" t="n">
-        <v>363998.3659817178</v>
-      </c>
-      <c r="N6" t="n">
-        <v>449053.3939172301</v>
-      </c>
-      <c r="O6" t="n">
-        <v>449053.3939172298</v>
-      </c>
       <c r="P6" t="n">
-        <v>449053.3939172296</v>
+        <v>449053.3939172299</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>185.1814529213718</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>7.755643479696175</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>106.5157699239736</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>190.7684683149591</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>77.95064019541115</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>71.50998900591657</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>5.953759881799257</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>75.60275199837628</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>302.8185005949839</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>186.0700707250634</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>30.70547742397736</v>
+        <v>146.1081052377118</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138809</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,25 +31843,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601592</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32470,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32552,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>677.2750468965965</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32728,7 +32730,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,7 +32794,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>379.4203056753705</v>
+        <v>595.3857163736981</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33737,13 +33739,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33977,7 +33979,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>537.6437863443698</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,16 +34216,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>640.7275049411307</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34454,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.9421752903428</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996669</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286435</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.123718484038</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230781</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567571</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106919</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014208</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340067</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802851</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>535.1410129745782</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36376,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>237.2862717533522</v>
+        <v>453.2516824516798</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>395.0475418999253</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>498.1312604966863</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38102,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1953104.814939759</v>
+        <v>1949092.204925767</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283209</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>15.03347606442089</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>196.162326659924</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851103</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>39.91819272259553</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>53.55611046890861</v>
       </c>
       <c r="T5" t="n">
-        <v>132.4079811337036</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>13.32940067167105</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>331.5681064216851</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>200.1678679309902</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.60155015132531</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576206</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C13" t="n">
-        <v>62.36981422367011</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605714874</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881311</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
-        <v>13.03790159951636</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>110.1270172504976</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D19" t="n">
-        <v>55.4097602225693</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161058</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722562</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187917</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012186</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T22" t="n">
-        <v>196.7867454260354</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>274.1357181000181</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476187967</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
-        <v>5.890337106877586</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="26">
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>31.83025205763987</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3003,13 +3003,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>56.10180801516488</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3082,13 +3082,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>155.0500112286387</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>119.456671712837</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>13.72582864853726</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>243.1373908222617</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.4286493356916</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>179.2499669408062</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1247.336299886559</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3017.171388833312</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2763.640912107148</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2763.640912107148</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W2" t="n">
-        <v>2763.640912107148</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X2" t="n">
-        <v>2763.640912107148</v>
+        <v>2382.341170533243</v>
       </c>
       <c r="Y2" t="n">
-        <v>2373.501580131336</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666.202517612298</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>497.2663346843912</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>497.2663346843912</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>666.202517612298</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y4" t="n">
-        <v>666.202517612298</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3271.508740327443</v>
       </c>
       <c r="T5" t="n">
-        <v>3081.569717647677</v>
+        <v>3065.530992711665</v>
       </c>
       <c r="U5" t="n">
-        <v>3081.569717647677</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="V5" t="n">
-        <v>2750.506830304106</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="W5" t="n">
-        <v>2750.506830304106</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.041072043026</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y5" t="n">
-        <v>1986.901740067214</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686088</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>846.0716871064765</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080142</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>458.6408346941415</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>458.6408346941415</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.788049458848</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886955</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>907.422964735689</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>907.422964735689</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>907.422964735689</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>907.422964735689</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>907.422964735689</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>907.422964735689</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>679.4334138376717</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.6408346941415</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1156.082344952774</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1156.082344952774</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923659</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662579</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y8" t="n">
-        <v>1959.379186075721</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>551.0642295677645</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>382.1280466398576</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398576</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>631.4698357812244</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>551.0642295677645</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.0642295677645</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5032,43 +5032,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192622</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111721</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075819</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398598</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273919</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803941</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516149</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>343.0994656851787</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851787</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851787</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,34 +5281,34 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273916</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516149</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>803.8641191832238</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>634.9279362553167</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="E16" t="n">
-        <v>335.9629114732377</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="F16" t="n">
-        <v>189.0729639753273</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="G16" t="n">
-        <v>189.0729639753273</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279796</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2085.823134123422</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1796.74790746762</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1542.063419261733</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1252.646249224772</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1024.656698326754</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>803.8641191832238</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516148</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>835.5837926935558</v>
+        <v>721.7774158311372</v>
       </c>
       <c r="C19" t="n">
-        <v>835.5837926935558</v>
+        <v>552.8412329032301</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5679,46 +5679,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2404.986360578634</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2185.384895601575</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1896.309668945773</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1641.625180739886</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1352.208010702925</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>1124.218459804907</v>
       </c>
       <c r="Y19" t="n">
-        <v>1017.232257523796</v>
+        <v>903.4258806613771</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406474</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168663</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3028.451182298828</v>
+        <v>707.6725264685183</v>
       </c>
       <c r="C22" t="n">
-        <v>2859.514999370921</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D22" t="n">
-        <v>2709.398359958586</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>2561.485266376193</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4492.058662069265</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4202.983435413463</v>
+        <v>1700.556314752914</v>
       </c>
       <c r="V22" t="n">
-        <v>3948.298947207576</v>
+        <v>1445.871826547027</v>
       </c>
       <c r="W22" t="n">
-        <v>3658.881777170615</v>
+        <v>1156.454656510066</v>
       </c>
       <c r="X22" t="n">
-        <v>3430.892226272598</v>
+        <v>928.4651056120485</v>
       </c>
       <c r="Y22" t="n">
-        <v>3210.099647129068</v>
+        <v>707.6725264685183</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876663</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597592</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>411.9631215597592</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597592</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597592</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614364</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179062</v>
       </c>
     </row>
     <row r="26">
@@ -6220,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>267.6802639609656</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>267.6802639609656</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6542,22 +6542,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2140.394052542956</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1851.318825887154</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6697,10 +6697,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290469</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C34" t="n">
-        <v>699.73118040114</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.315828159287</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101817</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>422.7903292978459</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>274.8772357154528</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>274.8772357154528</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>107.6811364303327</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>549.6145409888043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
   </sheetData>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>146.8157004124976</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>127.2568112467075</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>107.2784330767909</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>93.20571279564305</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.4693302300342</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>5.570655048359185e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856569</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>20.61870490125284</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>12.04875628922622</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>72.11969353038934</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012186</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>280.2941372823665</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>133.693886234629</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>161.3036423121234</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.12798163925781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>126.5688841976866</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>9.000252501566337</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>46.45968844823099</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861532.6408697899</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>861532.6408697899</v>
+        <v>861532.6408697893</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>861532.6408697899</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073562</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551215</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418671</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418671</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418671</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186731</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880399</v>
+        <v>-955546.1914880394</v>
       </c>
       <c r="C6" t="n">
+        <v>373198.5542395526</v>
+      </c>
+      <c r="D6" t="n">
         <v>373198.5542395527</v>
       </c>
-      <c r="D6" t="n">
-        <v>373198.5542395525</v>
-      </c>
       <c r="E6" t="n">
-        <v>123640.9321098748</v>
+        <v>123293.5528555171</v>
       </c>
       <c r="F6" t="n">
-        <v>449053.3939172299</v>
+        <v>448706.0146628734</v>
       </c>
       <c r="G6" t="n">
-        <v>449053.39391723</v>
+        <v>448706.0146628733</v>
       </c>
       <c r="H6" t="n">
-        <v>449053.3939172299</v>
+        <v>448706.0146628737</v>
       </c>
       <c r="I6" t="n">
-        <v>449053.3939172299</v>
+        <v>448706.0146628732</v>
       </c>
       <c r="J6" t="n">
-        <v>231522.1915199523</v>
+        <v>231174.8122655958</v>
       </c>
       <c r="K6" t="n">
-        <v>449053.3939172298</v>
+        <v>448706.0146628731</v>
       </c>
       <c r="L6" t="n">
-        <v>449053.3939172299</v>
+        <v>448706.0146628731</v>
       </c>
       <c r="M6" t="n">
-        <v>363998.3659817181</v>
+        <v>363650.9867273609</v>
       </c>
       <c r="N6" t="n">
-        <v>449053.39391723</v>
+        <v>448706.0146628731</v>
       </c>
       <c r="O6" t="n">
-        <v>449053.3939172301</v>
+        <v>448706.0146628731</v>
       </c>
       <c r="P6" t="n">
-        <v>449053.3939172299</v>
+        <v>448706.0146628731</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022922</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.70828809965</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483764</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697357</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697357</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697357</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>366.8968940078409</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>7.755643479696175</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>106.5157699239736</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>153.6216279422649</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>55.63165131926723</v>
       </c>
       <c r="T5" t="n">
-        <v>71.50998900591657</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>75.60275199837628</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>75.30793932002632</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>186.0700707250634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>146.1081052377118</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.132953937915056e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28745,52 +28745,52 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-8.805415399915623e-14</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-4.721031341901565e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28958,13 +28958,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -28973,13 +28973,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29006,28 +29006,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.6252644185777e-13</v>
       </c>
     </row>
     <row r="23">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31603,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P15" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043684</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L18" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>677.2750468965965</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>454.8099857531869</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33262,7 +33262,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,7 +33271,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>595.3857163736981</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,7 +33280,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33754,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>400.8433522134843</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,25 +33979,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>441.0292693655512</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>640.7275049411307</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P15" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060385</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902362</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L18" t="n">
-        <v>108.4053175402704</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>535.1410129745782</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36439,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>320.8355783388566</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629532</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,7 +36919,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>453.2516824516798</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,7 +36928,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37402,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>266.868944799154</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>498.1312604966863</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1949092.204925767</v>
+        <v>1950852.735228552</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283209</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>15.03347606442089</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>59.32996291532975</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851103</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>72.08802744677224</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>258.2775521997502</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>53.55611046890861</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>331.5681064216851</v>
+        <v>250.921808922939</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576206</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.799772605714874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.43062059490504</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012179</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881311</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012179</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>110.1270172504976</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>212.560296663224</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>41.55695577161058</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722562</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187917</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>92.58181139165765</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012186</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>274.1357181000181</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.584653352095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>93.40444476187967</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462241</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D31" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T34" t="n">
-        <v>155.0500112286387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0.6197054599894091</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>125.8152577453157</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790577</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>45.16086499484859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1605.60199849331</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1605.60199849331</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1247.336299886559</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794323</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794323</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533243</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.201838557432</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4476,64 +4476,64 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>848.0708164780106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>848.0708164780106</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3271.508740327443</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3065.530992711665</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2812.000515985501</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2812.000515985501</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W5" t="n">
-        <v>2812.000515985501</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X5" t="n">
-        <v>2438.534757724422</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.39542574861</v>
+        <v>2308.470254646116</v>
       </c>
     </row>
     <row r="6">
@@ -4640,25 +4640,25 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218338</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696228</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.788049458848</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886955</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,73 +4780,73 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1514.348043559525</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C8" t="n">
-        <v>1514.348043559525</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="D8" t="n">
-        <v>1156.082344952774</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="E8" t="n">
-        <v>1156.082344952774</v>
+        <v>372.9974339567476</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
         <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
         <v>1514.348043559525</v>
@@ -4877,28 +4877,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362708</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192622</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111721</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075819</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.26572885226</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398598</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492583</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273919</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803941</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516149</v>
+        <v>484.8243144841084</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>980.1499206998673</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348534</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400705</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121634</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851787</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851787</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851787</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138406</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703104</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273916</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516149</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167374</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832238</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553167</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429808</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429808</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429808</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578605</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279796</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832656</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487561</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2085.823134123422</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U16" t="n">
-        <v>1796.74790746762</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1542.063419261733</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1252.646249224772</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1024.656698326754</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>803.8641191832238</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.26572885226</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516148</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.7774158311372</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032301</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908942</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908942</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908942</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057739</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2404.986360578634</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2185.384895601575</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1896.309668945773</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1641.625180739886</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1352.208010702925</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.218459804907</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613771</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,25 +5734,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406474</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168663</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5764,22 +5764,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.6725264685183</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406112</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>584.529540471266</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>436.6164468888729</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>436.6164468888729</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>269.4203476037529</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1700.556314752914</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1445.871826547027</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1156.454656510066</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>928.4651056120485</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>707.6725264685183</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5971,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876663</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597592</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597592</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597592</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597592</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578605</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258104</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359454</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614364</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179062</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,13 +6475,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>576.8388927589092</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>2040.446372529346</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1751.371145873544</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1496.686657667657</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1207.269487630696</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>979.2799367326791</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>758.4873575891489</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6931,13 +6931,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6949,19 +6949,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192633</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.33711846916</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.482284124065</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.880819147006</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.805592491204</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192511</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1098.667160263527</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263527</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-1.063451355892333e-12</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8157004124976</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819375</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>107.2784330767909</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>73.62417772602012</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856566</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012179</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.4693302300342</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>5.570655048359185e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462241</v>
+        <v>47.71290145456621</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856569</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>12.04875628922622</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>72.11969353038934</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012186</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D31" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T34" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>65.75554125013225</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>39.70888054695313</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>180.5487903941886</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>861532.6408697893</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697895</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697899</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830045</v>
@@ -26331,31 +26331,31 @@
         <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="I2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073562</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551215</v>
+        <v>85055.02793551207</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.6960418671</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.6960418671</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
         <v>14826.6960418673</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.6960418671</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186731</v>
+        <v>14826.69604186729</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26453,7 +26453,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186729</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880394</v>
+        <v>-955546.1914880397</v>
       </c>
       <c r="C6" t="n">
-        <v>373198.5542395526</v>
+        <v>373198.5542395529</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395527</v>
+        <v>373198.5542395531</v>
       </c>
       <c r="E6" t="n">
-        <v>123293.5528555171</v>
+        <v>123606.1941844384</v>
       </c>
       <c r="F6" t="n">
-        <v>448706.0146628734</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="G6" t="n">
-        <v>448706.0146628733</v>
+        <v>449018.6559917945</v>
       </c>
       <c r="H6" t="n">
-        <v>448706.0146628737</v>
+        <v>449018.6559917944</v>
       </c>
       <c r="I6" t="n">
-        <v>448706.0146628732</v>
+        <v>449018.6559917942</v>
       </c>
       <c r="J6" t="n">
-        <v>231174.8122655958</v>
+        <v>231487.4535945168</v>
       </c>
       <c r="K6" t="n">
-        <v>448706.0146628731</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="L6" t="n">
-        <v>448706.0146628731</v>
+        <v>449018.6559917944</v>
       </c>
       <c r="M6" t="n">
-        <v>363650.9867273609</v>
+        <v>363963.6280562822</v>
       </c>
       <c r="N6" t="n">
-        <v>448706.0146628731</v>
+        <v>449018.6559917944</v>
       </c>
       <c r="O6" t="n">
-        <v>448706.0146628731</v>
+        <v>449018.6559917942</v>
       </c>
       <c r="P6" t="n">
-        <v>448706.0146628731</v>
+        <v>449018.6559917945</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.70828809965</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483764</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697357</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697357</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697357</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>366.8968940078409</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>310.4011377631393</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>153.6216279422649</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>124.4562894637303</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>55.63165131926723</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282316</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>75.30793932002632</v>
+        <v>155.9542368187724</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="11">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.132953937915056e-14</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28745,52 +28745,52 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-8.805415399915623e-14</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.721031341901565e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28958,13 +28958,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -28973,13 +28973,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29006,28 +29006,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-1.6252644185777e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422589</v>
+        <v>381.6404378718153</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473077</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862126</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.279049007179</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643557995</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742442</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121572</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422589</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473077</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862126</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.279049007179</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643557995</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742442</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121572</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043684</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422589</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473077</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862126</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.279049007179</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643557995</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742442</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121572</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>436.0678650906015</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>436.0678650906015</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067235</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N39" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396423</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367775</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462694</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902954</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924731</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774986</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678999</v>
+        <v>243.7989988974562</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674335</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238457</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113551</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010452</v>
@@ -35588,7 +35588,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396423</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367775</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462694</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902954</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924731</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774986</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678999</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674335</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238457</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113551</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010452</v>
@@ -35819,13 +35819,13 @@
         <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060385</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367775</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462694</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902954</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924731</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902362</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774986</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678999</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674335</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238457</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113551</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36062,7 +36062,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>302.0934576762713</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>302.0934576762713</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317594</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N39" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
